--- a/Team task tracker.xlsx
+++ b/Team task tracker.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My drive\Course\Data Science\Projects\Graduation Projects\DataAnalysis_DEPI_GraduationProject\old_GraduationProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2543D55D-04AF-41B6-9785-720E3114B12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F67F28-B82D-4C70-BC59-E244DE62F317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Team Tracker" sheetId="1" r:id="rId1"/>
+    <sheet name="Load" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Task Description</t>
   </si>
@@ -51,15 +52,6 @@
     <t>Task Name</t>
   </si>
   <si>
-    <t>Modeling</t>
-  </si>
-  <si>
-    <t>PowerBI</t>
-  </si>
-  <si>
-    <t>Reports</t>
-  </si>
-  <si>
     <t>Mostafa</t>
   </si>
   <si>
@@ -69,9 +61,6 @@
     <t>Mohamed Fekry</t>
   </si>
   <si>
-    <t>Deployment</t>
-  </si>
-  <si>
     <t>Mohamed Moselhy</t>
   </si>
   <si>
@@ -94,13 +83,84 @@
   </si>
   <si>
     <t>Not started</t>
+  </si>
+  <si>
+    <t>Hassan waked</t>
+  </si>
+  <si>
+    <t>ML Model</t>
+  </si>
+  <si>
+    <t>Started from scratch</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>22/4/2025</t>
+  </si>
+  <si>
+    <t>14/4/2025</t>
+  </si>
+  <si>
+    <t>Report consolidation and preparations</t>
+  </si>
+  <si>
+    <t>Sick</t>
+  </si>
+  <si>
+    <t>Free time to work in project</t>
+  </si>
+  <si>
+    <t>--------</t>
+  </si>
+  <si>
+    <t>Revamp the process + Deployment</t>
+  </si>
+  <si>
+    <t>Database + PowerBI</t>
+  </si>
+  <si>
+    <t>Urgent++</t>
+  </si>
+  <si>
+    <t>15/4/2025</t>
+  </si>
+  <si>
+    <t>provided</t>
+  </si>
+  <si>
+    <t>Not provided</t>
+  </si>
+  <si>
+    <t>13/4/2025</t>
+  </si>
+  <si>
+    <t>Mostafa is not accepting any tasks. 
+The model will be revamped.</t>
+  </si>
+  <si>
+    <t>Mohamed Alaa
+Mohamed Fekry</t>
+  </si>
+  <si>
+    <t>Consultation, Reports</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Database + PowerBI + Visualization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,20 +169,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -137,12 +210,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,104 +513,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="2">
         <v>45965</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="I2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="6">
+        <v>45995</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525C912C-0638-40BB-8F2B-FD5A602B9DA9}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2">
-        <v>45995</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
